--- a/data/long_dif/P29-Urba-long_dif.xlsx
+++ b/data/long_dif/P29-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>33,42%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,21%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>29,35%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>29,58%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39,95%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>32,34%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26,06%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>31,4%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>38,54%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,47; 41,61</t>
+          <t>30,97; 44,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,4; 26,48</t>
+          <t>18,47; 26,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,19; 32,66</t>
+          <t>26,8; 43,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,25; 35,15</t>
+          <t>31,81; 43,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,88; 34,9</t>
+          <t>24,74; 32,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,42; 29,81</t>
+          <t>25,83; 33,73</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24,8; 34,6</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35,26; 45,04</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28,67; 36,48</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22,96; 28,51</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>27,17; 37,48</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>34,8; 42,7</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,28%</t>
+          <t>38,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>47,45%</t>
+          <t>46,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,88%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43,92%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>41,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>44,25%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>43,47%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30,85%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>40,1%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>45,52%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>41,39%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33,56%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,08; 44,65</t>
+          <t>32,34; 43,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,68; 53,38</t>
+          <t>41,99; 52,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,9; 46,29</t>
+          <t>32,1; 45,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39,48; 48,0</t>
+          <t>31,02; 42,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>37,09; 44,04</t>
+          <t>37,71; 46,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>42,13; 49,52</t>
+          <t>39,98; 48,1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38,5; 48,67</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26,54; 35,43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36,43; 43,86</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>42,37; 48,93</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>36,69; 45,34</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>29,84; 37,59</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>27,48%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>29,49%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>26,4%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26,95%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>29,19%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,56%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>28,42%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>27,2%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>27,9%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,49; 30,38</t>
+          <t>21,33; 30,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,75; 35,2</t>
+          <t>26,03; 35,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,51; 35,54</t>
+          <t>22,48; 33,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,42; 29,8</t>
+          <t>21,42; 32,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,89; 31,67</t>
+          <t>25,25; 33,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,2; 31,19</t>
+          <t>23,0; 30,52</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22,64; 31,53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>24,91; 34,62</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24,71; 31,4</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>25,3; 31,42</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24,03; 30,91</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>24,25; 31,96</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,37; 42,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,74; 37,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,53; 36,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,07; 34,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,65; 37,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,38; 35,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>44,07%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>31,54%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>30,71%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34,06%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>43,33%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34,08%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31,57%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>31,85%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43,73%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,06; 47,46</t>
+          <t>30,98; 43,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,61; 43,58</t>
+          <t>27,22; 38,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,57; 46,35</t>
+          <t>23,7; 36,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,35; 39,21</t>
+          <t>32,72; 61,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,48; 44,5</t>
+          <t>26,79; 36,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,42; 39,56</t>
+          <t>26,48; 35,0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>28,71; 39,3</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33,35; 54,47</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30,12; 38,37</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>28,23; 35,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28,12; 35,8</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>35,85; 52,77</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>43,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>38,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>41,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>34,86%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>37,6%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38,34%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>39,43%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>35,48%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>40,49%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>38,58%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,41; 30,77</t>
+          <t>31,53; 45,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,78; 35,95</t>
+          <t>30,04; 41,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,16; 33,12</t>
+          <t>35,56; 49,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29,9; 39,24</t>
+          <t>26,96; 50,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,26; 30,76</t>
+          <t>36,24; 46,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,5; 36,25</t>
+          <t>30,49; 39,53</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>32,51; 42,81</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>28,75; 49,28</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>35,28; 43,64</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>31,93; 39,18</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>35,96; 45,06</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>31,15; 45,72</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>31,45%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,79%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>34,43%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28,35%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>18,34%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>26,49%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>32,95%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>27,67%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>17,7%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,26; 43,34</t>
+          <t>20,43; 30,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,3; 41,77</t>
+          <t>26,64; 36,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,13; 40,2</t>
+          <t>20,83; 34,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,01; 37,3</t>
+          <t>10,09; 25,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,16; 37,74</t>
+          <t>22,79; 32,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,03; 36,72</t>
+          <t>30,26; 39,47</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>23,21; 34,09</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10,81; 28,63</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23,28; 30,02</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>29,74; 36,52</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>23,58; 32,3</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12,65; 24,04</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>39,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>39,42%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23,65; 46,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,93; 49,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,4; 52,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>30,56; 48,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>31,97; 47,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,51; 46,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>37,45%</t>
+          <t>30,12%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>30,13%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>30,44%</t>
+          <t>27,79%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>26,55%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>30,18%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>28,96%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>33,13%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>26,95; 49,8</t>
+          <t>19,71; 47,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,84; 41,16</t>
+          <t>20,94; 39,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>18,85; 36,85</t>
+          <t>24,64; 60,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>23,94; 40,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>24,69; 40,42</t>
+          <t>21,83; 40,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,1; 37,7</t>
+          <t>20,24; 36,96</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>18,38; 36,91</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>22,89; 40,85</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>23,07; 35,17</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>24,58; 45,79</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>39,84%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>42,69%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>39,59%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>40,15%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>37,63%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>39,72%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>33,84%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>30,67; 38,43</t>
+          <t>21,26; 44,42</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>24,54; 30,99</t>
+          <t>29,76; 51,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>26,62; 32,91</t>
+          <t>15,8; 42,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>27,3; 33,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>29,3; 34,52</t>
+          <t>33,21; 53,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>26,82; 30,96</t>
+          <t>31,38; 48,77</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>29,33; 50,61</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>29,47; 44,98</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>33,02; 46,81</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>24,68; 42,7</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>37,24%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>42,29%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>41,66%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>39,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>40,11%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>41,04%</t>
+          <t>32,61%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>33,3%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>32,19%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>31,32%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>33,03%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>34,63; 43,06</t>
+          <t>25,75; 48,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>38,52; 46,03</t>
+          <t>20,08; 42,85</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>38,07; 44,82</t>
+          <t>19,48; 48,54</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>37,31; 42,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>37,51; 42,77</t>
+          <t>18,68; 36,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>38,65; 43,57</t>
+          <t>24,89; 41,42</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>23,12; 45,48</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>24,89; 39,72</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>25,43; 38,78</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>24,57; 41,83</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>30,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +2228,630 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>23,85; 30,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>26,98; 33,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>25,77; 32,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>27,46; 32,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>25,77; 30,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>27,73; 32,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>35,74%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>27,34%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>32,65%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>38,75%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>29,93%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>29,69%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>30,96%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>40,65%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>32,75%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>28,55%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>31,78%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>39,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>31,79; 40,16</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>24,32; 30,69</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>28,19; 39,24</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>33,66; 45,12</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>26,81; 32,74</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>27,19; 32,45</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>27,72; 34,17</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>36,32; 45,21</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>30,08; 35,55</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>26,63; 30,78</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>28,99; 35,58</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>35,88; 43,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>37,35%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>41,77%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>39,42%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>36,97%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>41,63%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>40,12%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>40,83%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>32,39%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>39,55%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>40,92%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>40,14%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>34,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>33,39; 41,29</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>38,07; 45,55</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>34,21; 43,78</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>31,4; 42,74</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>38,55; 45,01</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>37,48; 43,36</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>37,75; 44,63</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>28,05; 36,58</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>37,03; 42,14</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>38,36; 43,14</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>37,23; 42,88</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>31,38; 38,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>26,92%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>30,89%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>24,28%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>28,44%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>30,18%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>28,21%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>26,97%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>30,53%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>28,08%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>25,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>23,13; 30,35</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>27,62; 34,71</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>23,93; 32,35</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>19,91; 29,93</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>25,35; 31,53</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>27,59; 33,29</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>25,04; 31,49</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>22,88; 31,53</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>25,56; 30,03</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>28,31; 32,56</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>25,63; 30,77</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>22,44; 29,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P29-Urba-long_dif.xlsx
+++ b/data/long_dif/P29-Urba-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -788,7 +788,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -920,7 +920,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1188,7 +1188,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1570,7 +1570,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1684,7 +1684,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1934,7 +1934,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2066,7 +2066,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
